--- a/Pandas/02-abrir_arquivos/nomes.xlsx
+++ b/Pandas/02-abrir_arquivos/nomes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FD3BD4-CEB8-4E4F-BA6E-567D52CB6650}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DF1B41-7A83-4BC1-9D4F-B5AD31B31069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1140" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -4312,7 +4312,7 @@
   <dimension ref="A1:I1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1001"/>
+      <selection activeCell="C12" sqref="C12:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4643,9 +4643,6 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
@@ -4672,9 +4669,6 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
@@ -4701,9 +4695,6 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
@@ -4730,9 +4721,6 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
@@ -4759,9 +4747,6 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
@@ -4788,9 +4773,6 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
@@ -4817,9 +4799,6 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
@@ -4846,9 +4825,6 @@
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
@@ -4874,9 +4850,6 @@
       </c>
       <c r="B20" t="s">
         <v>9</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
